--- a/Final Folder/Project Management/Monitoring & Controlling Phase/Testing & Evaluation/Trader (Oracle)/Trader Oracle Testing.xlsx
+++ b/Final Folder/Project Management/Monitoring & Controlling Phase/Testing & Evaluation/Trader (Oracle)/Trader Oracle Testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Test Cases</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Trader login with wrong password.</t>
   </si>
   <si>
-    <t>Trader login with not activated email.</t>
-  </si>
-  <si>
     <t>Trader login with valid credentials.</t>
   </si>
   <si>
@@ -60,7 +57,49 @@
     <t>Trader Logout</t>
   </si>
   <si>
-    <t>Logged out and redirects to home page.</t>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>View Monthly Order Report</t>
+  </si>
+  <si>
+    <t>View Products Stock Report</t>
+  </si>
+  <si>
+    <t>View Payment Report</t>
+  </si>
+  <si>
+    <t>View Weekly Order Report</t>
+  </si>
+  <si>
+    <t>View Daily Order Report</t>
+  </si>
+  <si>
+    <t>View Review and Ratings Report</t>
+  </si>
+  <si>
+    <t>Trader gets logged out.</t>
+  </si>
+  <si>
+    <t>Monthly Order Report is displayed.</t>
+  </si>
+  <si>
+    <t>Products Stock Report is displayed.</t>
+  </si>
+  <si>
+    <t>Payment Report is displayed.</t>
+  </si>
+  <si>
+    <t>Weekly Order Report is displayed.</t>
+  </si>
+  <si>
+    <t>Daily Order Report is displayed.</t>
+  </si>
+  <si>
+    <t>Review and Ratings report is displayed.</t>
+  </si>
+  <si>
+    <t>Trader login with not registered email.</t>
   </si>
 </sst>
 </file>
@@ -427,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,7 +537,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -509,59 +548,96 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="4"/>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="4"/>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="D11" s="4"/>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="D14" s="4"/>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
